--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,15 +496,40 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35-39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>36-39</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,40 +496,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>36-39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>36-39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
